--- a/uploads/ejemplo1.xlsx
+++ b/uploads/ejemplo1.xlsx
@@ -19,41 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Agustin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Ramos</t>
   </si>
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Curso</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direccion </t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
-    <t>Daniela</t>
-  </si>
-  <si>
     <t>Jaramillo</t>
   </si>
   <si>
@@ -63,7 +33,25 @@
     <t>cra cs 12</t>
   </si>
   <si>
-    <t>cra 7 cs 9</t>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Ingeniero industrial</t>
+  </si>
+  <si>
+    <t>Espanol, Ingles</t>
+  </si>
+  <si>
+    <t>10A,6A</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Adminitrador de empresas</t>
   </si>
 </sst>
 </file>
@@ -405,79 +393,68 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="1">
+        <v>1087456433</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1">
+        <v>1223123</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1088345123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2">
+        <v>1225678345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>21</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>12133334</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>1223123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1225678345</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12133334</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="2"/>
